--- a/软工部个人（卢嘉诚）工作周报20160401.xlsx
+++ b/软工部个人（卢嘉诚）工作周报20160401.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>软工部周报</t>
   </si>
@@ -56,22 +56,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>财务管理系统UI设计</t>
-  </si>
-  <si>
-    <t>财务管理系统UI设计</t>
+    <t>编写财务系统存储过程与webservice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>完成文档，提交审核</t>
+    <t>完成所有增删改锁定的webservice和存储过程</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>审核未通过，继续修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成UI设计文档1.0版增加UI界面图片，修改设计完毕，提交审核，未通过，反馈意见继续修改</t>
+    <t>2016-5-3 -2016-5-7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -152,11 +145,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,7 +531,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,27 +547,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>42461</v>
+        <v>42497</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -611,52 +604,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="3">
-        <v>42458</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="3">
-        <v>42459</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="3">
-        <v>42460</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -664,10 +645,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -675,10 +656,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -686,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="3"/>
       <c r="H9" s="5"/>
     </row>
@@ -698,10 +679,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
     </row>
@@ -710,10 +691,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -721,10 +702,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
     </row>
@@ -733,10 +714,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
     </row>
@@ -745,10 +726,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -756,10 +737,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -767,10 +748,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
     </row>
@@ -779,10 +760,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
     </row>
@@ -791,20 +772,14 @@
         <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
@@ -817,6 +792,12 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
